--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rceab4444a0394677"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R44b8f36c2d154fe6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R44b8f36c2d154fe6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R6ecfba87f3744a9b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R6ecfba87f3744a9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R3c53cdff35424af7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R3c53cdff35424af7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R860a0916a3d64e51"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,40 +27,40 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -73,19 +73,19 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF0000"/>
+        <x:fgColor rgb="FFFF0000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF00"/>
+        <x:fgColor rgb="FFFFFF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="00FF00"/>
+        <x:fgColor rgb="FF00FF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R860a0916a3d64e51"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R3a6b301d2c92439e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R3a6b301d2c92439e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R43430abb6f404c60"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R43430abb6f404c60"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R7e216b65c6384b5a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R7e216b65c6384b5a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rf7d71f09a75c44a6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rf7d71f09a75c44a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R977c803bdace4fb7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R977c803bdace4fb7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R68d3e78042bb42a6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R68d3e78042bb42a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rfaf9a608fc6e4e20"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rfaf9a608fc6e4e20"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R78ee93d8cf504aea"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R78ee93d8cf504aea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R9149bbdefea74e51"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R9149bbdefea74e51"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R584ba65630bc4974"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R584ba65630bc4974"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R152d5ed065604e16"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R152d5ed065604e16"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rf233c49743004041"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rf233c49743004041"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R4a5792bb07614d0b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R4a5792bb07614d0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rff1a9f7645054a84"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rff1a9f7645054a84"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Re0df08c697db4e3d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Re0df08c697db4e3d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R54c4505b72544d52"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R54c4505b72544d52"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R1aaf9750d71749ed"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R1aaf9750d71749ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Re63d871624294f30"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Re63d871624294f30"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Re5730c00497f4557"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Re5730c00497f4557"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rfdefd20d53e648ef"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rfdefd20d53e648ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R7f1f4dd9186d4853"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R7f1f4dd9186d4853"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R65b99417c0a64038"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R65b99417c0a64038"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R86118efff41b4917"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R86118efff41b4917"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rd5b69cd2e09e4486"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rd5b69cd2e09e4486"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rf10af15680694776"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rf10af15680694776"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R83dd1edcd83b4b7b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R83dd1edcd83b4b7b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Ra56c4e9c3cf94498"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Ra56c4e9c3cf94498"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rd22fe871f34f4e31"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rd22fe871f34f4e31"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rce5cba78da5442a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rce5cba78da5442a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R9949a5123e80451e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R9949a5123e80451e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R95f04375eb9c4fc8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R95f04375eb9c4fc8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R7babffb81c9e4d1d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R7babffb81c9e4d1d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R21c3f55be1a84fa4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R21c3f55be1a84fa4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R1e124ee108ca4d96"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R1e124ee108ca4d96"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R23cc5d3a1d074925"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R23cc5d3a1d074925"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rf7844f6566d84bef"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rf7844f6566d84bef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rb317f38795b54a81"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="Rb317f38795b54a81"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R8b5ce51bd5a44f87"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R8b5ce51bd5a44f87"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R22dd516331dd4f72"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R22dd516331dd4f72"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R61bc1a19c33b465e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/16_ConditionalFormatting.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R61bc1a19c33b465e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalFormatting" sheetId="1" r:id="R664f1b3ad77f4ca8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
